--- a/apps/octopus/Predation_Estimates_2016a_2023.xlsx
+++ b/apps/octopus/Predation_Estimates_2016a_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerim.aydin\Work\src\reem_diets\apps\octopus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1838E404-8FD5-48D5-9674-ACAD1F89B597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3C30DF-8060-42BB-A742-E67AA03AEA68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2153,771 +2153,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>out!$AJ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>a_mean_2023</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>out!$AI$3:$AI$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>out!$AJ$3:$AJ$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>7163.1207336833304</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7953.7410258964101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4544.6723054732001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9850.79506943044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>527.67346000895498</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7073.6699648159101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2154.4871599124099</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2573.71155103196</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>386.16770124503699</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7111.0801463239704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5216.1855916598397</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3378.6853694960901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4314.6799424941601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4704.2417206544496</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4782.6576268070803</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4821.76872154394</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6825.0852311771796</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13129.9176497844</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3207.4739632321898</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4001.7982782379299</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19980.543800760501</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13203.8847925683</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23649.8214299215</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2382.1474110183399</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1880.26751417418</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10002.15289207</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22671.417613465099</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6577.7085969338796</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10379.4911187013</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16187.1367793516</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18450.367657738501</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>27653.761256497801</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>25679.283558315099</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>17402.332492040299</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14445.460363067999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14920.2143990487</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6207.0812750371097</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10324.4027334806</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9DBB-4268-AEC8-39BC197BD099}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>out!$AK$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>amean_2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>out!$AI$3:$AI$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>out!$AK$3:$AK$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>3409.8209073742</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5405.8318292672202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5586.1631133581204</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7601.0803280167702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>542.621773009501</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5977.40459164397</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1862.9159909656</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2523.1746135912299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>875.59564865324603</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7222.5107123829002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4990.3509180422398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3994.0374507790302</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3497.8995441639699</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4813.9767720050004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4186.1898496866197</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5340.8213926469698</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5539.2453845051796</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11355.9428972552</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4316.8688806242099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3732.7553032423002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16437.6611765015</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>13747.270797249201</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11562.4838294618</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2347.2904462843298</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1713.6444382096799</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10434.1006867338</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23561.334929640201</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15343.142609696</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18615.726461070899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9DBB-4268-AEC8-39BC197BD099}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1672016127"/>
-        <c:axId val="1670153215"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1672016127"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1670153215"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1670153215"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1672016127"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>out!$AM$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -3658,7 +2893,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4812,46 +4047,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5924,522 +5119,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7035,52 +5714,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F2FEA7-E47A-411D-B994-36A37133B643}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7101,7 +5744,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7109,16 +5752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>338136</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>423861</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7137,7 +5780,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7469,8 +6112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AP15" sqref="AP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7657,7 +6300,7 @@
       </c>
       <c r="Q3" s="14">
         <f>$B$28</f>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S3">
         <v>1984</v>
@@ -7795,7 +6438,7 @@
       </c>
       <c r="Q4" s="14">
         <f t="shared" ref="Q4:Q26" si="1">$B$28</f>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S4">
         <v>1985</v>
@@ -7933,7 +6576,7 @@
       </c>
       <c r="Q5" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S5">
         <v>1986</v>
@@ -8071,7 +6714,7 @@
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S6">
         <v>1987</v>
@@ -8209,7 +6852,7 @@
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S7">
         <v>1988</v>
@@ -8347,7 +6990,7 @@
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S8">
         <v>1989</v>
@@ -8485,7 +7128,7 @@
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S9">
         <v>1990</v>
@@ -8623,7 +7266,7 @@
       </c>
       <c r="Q10" s="14">
         <f>$B$28</f>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S10">
         <v>1991</v>
@@ -8761,7 +7404,7 @@
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S11">
         <v>1992</v>
@@ -8899,7 +7542,7 @@
       </c>
       <c r="Q12" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S12">
         <v>1993</v>
@@ -9037,7 +7680,7 @@
       </c>
       <c r="Q13" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S13">
         <v>1994</v>
@@ -9175,7 +7818,7 @@
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S14">
         <v>1995</v>
@@ -9313,7 +7956,7 @@
       </c>
       <c r="Q15" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S15">
         <v>1996</v>
@@ -9451,7 +8094,7 @@
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S16">
         <v>1997</v>
@@ -9589,7 +8232,7 @@
       </c>
       <c r="Q17" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S17">
         <v>1998</v>
@@ -9727,7 +8370,7 @@
       </c>
       <c r="Q18" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S18">
         <v>1999</v>
@@ -9865,7 +8508,7 @@
       </c>
       <c r="Q19" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S19">
         <v>2000</v>
@@ -10003,7 +8646,7 @@
       </c>
       <c r="Q20" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S20">
         <v>2001</v>
@@ -10141,7 +8784,7 @@
       </c>
       <c r="Q21" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S21">
         <v>2002</v>
@@ -10279,7 +8922,7 @@
       </c>
       <c r="Q22" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S22">
         <v>2003</v>
@@ -10417,7 +9060,7 @@
       </c>
       <c r="Q23" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S23">
         <v>2004</v>
@@ -10478,7 +9121,7 @@
       </c>
       <c r="Q24" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S24">
         <v>2005</v>
@@ -10616,7 +9259,7 @@
       </c>
       <c r="Q25" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S25">
         <v>2006</v>
@@ -10754,7 +9397,7 @@
       </c>
       <c r="Q26" s="14">
         <f t="shared" si="1"/>
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="S26">
         <v>2007</v>
@@ -10936,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="7">
-        <v>3451.6326651224267</v>
+        <v>3451.6326651224299</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
@@ -11034,7 +9677,7 @@
       </c>
       <c r="B29" s="7">
         <f>B28*0.75</f>
-        <v>2588.7244988418202</v>
+        <v>2588.7244988418224</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
